--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/CD/15/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/CD/15/seed3/result_data_KNN.xlsx
@@ -494,7 +494,7 @@
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.880000000000001</v>
+        <v>-7.877</v>
       </c>
     </row>
     <row r="5">
@@ -547,7 +547,7 @@
         <v>2.91</v>
       </c>
       <c r="C8" t="n">
-        <v>-12.988</v>
+        <v>-11.953</v>
       </c>
       <c r="D8" t="n">
         <v>-8.029999999999999</v>
@@ -575,7 +575,7 @@
         <v>6.17</v>
       </c>
       <c r="C10" t="n">
-        <v>-13.978</v>
+        <v>-13.08</v>
       </c>
       <c r="D10" t="n">
         <v>-8.85</v>
@@ -603,10 +603,10 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-11.806</v>
+        <v>-11.466</v>
       </c>
       <c r="D12" t="n">
-        <v>-8.462</v>
+        <v>-7.775</v>
       </c>
     </row>
     <row r="13">
@@ -648,7 +648,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-7.816</v>
+        <v>-8.011999999999999</v>
       </c>
     </row>
     <row r="16">
@@ -676,7 +676,7 @@
         <v>-14.84</v>
       </c>
       <c r="D17" t="n">
-        <v>-8.437999999999999</v>
+        <v>-8.228999999999999</v>
       </c>
     </row>
     <row r="18">
@@ -687,7 +687,7 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-12.952</v>
+        <v>-12.31</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -802,7 +802,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.006</v>
+        <v>-7.255000000000001</v>
       </c>
     </row>
     <row r="27">
@@ -816,7 +816,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-7.651999999999999</v>
+        <v>-7.572</v>
       </c>
     </row>
     <row r="28">
@@ -830,7 +830,7 @@
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-7.652000000000001</v>
+        <v>-7.609</v>
       </c>
     </row>
     <row r="29">
@@ -953,10 +953,10 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-12.536</v>
+        <v>-13.179</v>
       </c>
       <c r="D37" t="n">
-        <v>-6.980000000000001</v>
+        <v>-7.369999999999999</v>
       </c>
     </row>
     <row r="38">
@@ -1096,7 +1096,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.766</v>
+        <v>-7.452</v>
       </c>
     </row>
     <row r="48">
@@ -1205,7 +1205,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.992</v>
+        <v>-13.633</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1348,7 +1348,7 @@
         <v>-11.86</v>
       </c>
       <c r="D65" t="n">
-        <v>-7.922</v>
+        <v>-7.741</v>
       </c>
     </row>
     <row r="66">
@@ -1387,7 +1387,7 @@
         <v>4.88</v>
       </c>
       <c r="C68" t="n">
-        <v>-11.396</v>
+        <v>-10.809</v>
       </c>
       <c r="D68" t="n">
         <v>-7.27</v>
@@ -1460,7 +1460,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-7.609999999999999</v>
+        <v>-7.826000000000001</v>
       </c>
     </row>
     <row r="74">
@@ -1513,7 +1513,7 @@
         <v>10.09</v>
       </c>
       <c r="C77" t="n">
-        <v>-13.702</v>
+        <v>-13.169</v>
       </c>
       <c r="D77" t="n">
         <v>-6.2</v>
@@ -1527,7 +1527,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>-13.844</v>
+        <v>-13.004</v>
       </c>
       <c r="D78" t="n">
         <v>-6.53</v>
@@ -1569,7 +1569,7 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-13.586</v>
+        <v>-13.054</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
@@ -1583,7 +1583,7 @@
         <v>5.26</v>
       </c>
       <c r="C82" t="n">
-        <v>-11.936</v>
+        <v>-11.773</v>
       </c>
       <c r="D82" t="n">
         <v>-7.37</v>
@@ -1614,7 +1614,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-7.996</v>
+        <v>-7.975</v>
       </c>
     </row>
     <row r="85">
@@ -1628,7 +1628,7 @@
         <v>-13.1</v>
       </c>
       <c r="D85" t="n">
-        <v>-8.141999999999999</v>
+        <v>-8.632</v>
       </c>
     </row>
     <row r="86">
@@ -1740,7 +1740,7 @@
         <v>-10.09</v>
       </c>
       <c r="D93" t="n">
-        <v>-7.090000000000001</v>
+        <v>-7.131</v>
       </c>
     </row>
     <row r="94">
@@ -1768,7 +1768,7 @@
         <v>-11.3</v>
       </c>
       <c r="D95" t="n">
-        <v>-7.386</v>
+        <v>-7.506</v>
       </c>
     </row>
     <row r="96">
@@ -1810,7 +1810,7 @@
         <v>-10.59</v>
       </c>
       <c r="D98" t="n">
-        <v>-7.52</v>
+        <v>-7.231</v>
       </c>
     </row>
     <row r="99">
@@ -1824,7 +1824,7 @@
         <v>-13.93</v>
       </c>
       <c r="D99" t="n">
-        <v>-8.120000000000001</v>
+        <v>-8.193000000000001</v>
       </c>
     </row>
     <row r="100">
@@ -1852,7 +1852,7 @@
         <v>-15.77</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.151999999999999</v>
+        <v>-7.825</v>
       </c>
     </row>
     <row r="102">
